--- a/includes/worklog_evaluation/5-2022_evaluation_cp.xlsx
+++ b/includes/worklog_evaluation/5-2022_evaluation_cp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Project Managers</t>
   </si>
@@ -27,6 +27,54 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Objective 2 (project 2)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Objective 1 (project 2)</t>
+  </si>
+  <si>
+    <t>Objective 2 (project 1)</t>
+  </si>
+  <si>
+    <t>Objective 1 (project 1)</t>
+  </si>
+  <si>
+    <t>MOYENNE : 100</t>
+  </si>
+  <si>
+    <t>COMPLETED : 4</t>
+  </si>
+  <si>
+    <t>Charles GBOYOU</t>
+  </si>
+  <si>
+    <t>Objective (P2)</t>
+  </si>
+  <si>
+    <t>Objective 2 (P1)</t>
+  </si>
+  <si>
+    <t>Objective 1 (P1)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MOYENNE : 66.666666666667</t>
+  </si>
+  <si>
+    <t>COMPLETED : 2</t>
+  </si>
+  <si>
+    <t>Donald</t>
   </si>
 </sst>
 </file>
@@ -63,7 +111,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +122,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40A497"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -97,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -109,6 +169,12 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,10 +475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,24 +505,179 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/includes/worklog_evaluation/5-2022_evaluation_cp.xlsx
+++ b/includes/worklog_evaluation/5-2022_evaluation_cp.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stage\wp-content\plugins\orion-task-manager\includes\worklog_evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162BD430-2173-4B36-822C-A5C52DD38855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CP_RAPPORT" sheetId="1" r:id="rId4"/>
+    <sheet name="CP_RAPPORT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Project Managers</t>
   </si>
@@ -29,15 +34,36 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Charles</t>
+    <t>Charles GBOYOU</t>
+  </si>
+  <si>
+    <t>Objective (P2)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Objective 2 (P1)</t>
+  </si>
+  <si>
+    <t>Objective 1 (P1)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MOYENNE : 66.666666666667</t>
+  </si>
+  <si>
+    <t>COMPLETED : 2</t>
+  </si>
+  <si>
+    <t>gboyoucharles5@gmail.com</t>
   </si>
   <si>
     <t>Objective 2 (project 2)</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Objective 1 (project 2)</t>
   </si>
   <si>
@@ -51,61 +77,26 @@
   </si>
   <si>
     <t>COMPLETED : 4</t>
-  </si>
-  <si>
-    <t>Charles GBOYOU</t>
-  </si>
-  <si>
-    <t>Objective (P2)</t>
-  </si>
-  <si>
-    <t>Objective 2 (P1)</t>
-  </si>
-  <si>
-    <t>Objective 1 (P1)</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MOYENNE : 66.666666666667</t>
-  </si>
-  <si>
-    <t>COMPLETED : 2</t>
-  </si>
-  <si>
-    <t>Donald</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -126,19 +117,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF40A497"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF40A497"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -152,36 +149,53 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,25 +485,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="true" style="1"/>
-    <col min="2" max="2" width="7" customWidth="true" style="1"/>
-    <col min="3" max="3" width="129.5703125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="true" style="1"/>
+    <col min="1" max="1" width="32.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="129.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -503,14 +514,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -521,8 +531,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -533,8 +543,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -542,75 +552,74 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -619,76 +628,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A3:A7"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>